--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4234314683431434</v>
+        <v>0.4074615223624193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9941480624573429</v>
+        <v>0.9943687714348889</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4074615223624193</v>
+        <v>0.1988537966434992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9943687714348889</v>
+        <v>0.9972517866878639</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1988537966434992</v>
+        <v>0.3602986410487848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9972517866878639</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9950205752246711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4980033758824289</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3602986410487848</v>
+        <v>0.2223578297307116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9950205752246711</v>
+        <v>0.9969269545865439</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4980033758824289</v>
+        <v>0.3617619540350124</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2223578297307116</v>
+        <v>0.3628170665402599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969269545865439</v>
+        <v>0.9949857699024791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3617619540350124</v>
+        <v>0.4982342734600646</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
-        </is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1258822953001072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3628170665402599</v>
+        <v>0.3818594781360153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9949857699024791</v>
+        <v>0.9947225986182192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4982342734600646</v>
+        <v>0.5158651859301162</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1258822953001072</v>
+        <v>0.1249592022499807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.988</v>
+        <v>0.985</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
+++ b/predictions/single/AdaBoostRegressor/Edema macular diabético.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3818594781360153</v>
+        <v>0.368102310726031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9947225986182192</v>
+        <v>0.994912726396776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5158651859301162</v>
+        <v>0.4951002342582931</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1249592022499807</v>
+        <v>0.1245324579833929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.985</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
